--- a/data.xlsx
+++ b/data.xlsx
@@ -3,12 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivek\git\Project_OrangeHRM\Capsotne_ProjectOrangeHRM\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FA4B53-FD34-452F-9288-0F61CC1BBE29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{0088056B-E96D-41D3-A80D-F2F7E52EDE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{2240DF42-4699-4AAE-928F-9FBB6DBCDE1A}"/>
   </bookViews>
@@ -16,7 +11,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:R12"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
